--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8078</v>
+        <v>37366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Catarina Fernandes</t>
+          <t>Danilo Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,109 +494,109 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>7914.89</v>
+        <v>5323.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96920</v>
+        <v>65029</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucas Cardoso</t>
+          <t>Nicolas da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>9240.110000000001</v>
+        <v>9655.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64011</v>
+        <v>82418</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Pires</t>
+          <t>Nicolas Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>4114.18</v>
+        <v>7797.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2409</v>
+        <v>10460</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enrico Dias</t>
+          <t>Kamilly Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>6550.9</v>
+        <v>8707.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28030</v>
+        <v>46065</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Larissa Nunes</t>
+          <t>Cauê Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,162 +606,162 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>5848.33</v>
+        <v>10300.69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13684</v>
+        <v>38020</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Augusto Farias</t>
+          <t>Carolina Azevedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>11699.9</v>
+        <v>4629.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82943</v>
+        <v>3897</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Breno Freitas</t>
+          <t>Dr. Augusto Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5340.67</v>
+        <v>9234.120000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40413</v>
+        <v>35888</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitória Gonçalves</t>
+          <t>Luiz Miguel Nunes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>11220.89</v>
+        <v>4186.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34267</v>
+        <v>84823</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isabelly Pires</t>
+          <t>Helena Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>8081.25</v>
+        <v>4034.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84580</v>
+        <v>21442</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Arthur Costela</t>
+          <t>Dr. João Guilherme Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>7941.06</v>
+        <v>5797.42</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37366</v>
+        <v>63316</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Fogaça</t>
+          <t>Sra. Valentina Pires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>5323.01</v>
+        <v>5812.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65029</v>
+        <v>195</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas da Costa</t>
+          <t>Caio Farias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>9655.35</v>
+        <v>6407.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82418</v>
+        <v>36616</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas Castro</t>
+          <t>Vicente da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>7797.67</v>
+        <v>6950.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10460</v>
+        <v>73965</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kamilly Moraes</t>
+          <t>Larissa Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>8707.07</v>
+        <v>5745.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46065</v>
+        <v>48273</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cauê Fernandes</t>
+          <t>Ana Julia Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>10300.69</v>
+        <v>10747.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38020</v>
+        <v>65771</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carolina Azevedo</t>
+          <t>Rafaela Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>4629.92</v>
+        <v>3872.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3897</v>
+        <v>56353</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Augusto Moura</t>
+          <t>Bianca Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>9234.120000000001</v>
+        <v>7468.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35888</v>
+        <v>29866</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Miguel Nunes</t>
+          <t>Emanuella da Cruz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>4186.73</v>
+        <v>3270.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84823</v>
+        <v>1860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Helena Duarte</t>
+          <t>Renan Pires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>4034.01</v>
+        <v>2754.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21442</v>
+        <v>69796</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. João Guilherme Barbosa</t>
+          <t>Joaquim Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>5797.42</v>
+        <v>6756.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63316</v>
+        <v>84351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Valentina Pires</t>
+          <t>Mariane Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>5812.29</v>
+        <v>6157.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>195</v>
+        <v>59273</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Farias</t>
+          <t>Carlos Eduardo Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>6407.42</v>
+        <v>7216.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36616</v>
+        <v>74846</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vicente da Mata</t>
+          <t>Emanuella Dias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>6950.06</v>
+        <v>2739.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73965</v>
+        <v>78049</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Larissa Barbosa</t>
+          <t>Maria Julia Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>5745.93</v>
+        <v>5911.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48273</v>
+        <v>66324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Julia Gomes</t>
+          <t>Júlia Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>10747.78</v>
+        <v>6925.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65771</v>
+        <v>38421</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafaela Ribeiro</t>
+          <t>Dr. Miguel Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>3872.27</v>
+        <v>2942.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56353</v>
+        <v>64118</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bianca Nascimento</t>
+          <t>Alana Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>7468.14</v>
+        <v>9344.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29866</v>
+        <v>27539</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emanuella da Cruz</t>
+          <t>Davi Luiz da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>3270.91</v>
+        <v>10402.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1860</v>
+        <v>19068</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renan Pires</t>
+          <t>Isabel Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>2754.81</v>
+        <v>12094.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69796</v>
+        <v>66097</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joaquim Cardoso</t>
+          <t>Ana Moraes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>6756.5</v>
+        <v>8584.940000000001</v>
       </c>
     </row>
   </sheetData>
